--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema3e-Plxnd1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema3e-Plxnd1.xlsx
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.05911933333333333</v>
+        <v>0.01860366666666667</v>
       </c>
       <c r="H2">
-        <v>0.177358</v>
+        <v>0.055811</v>
       </c>
       <c r="I2">
-        <v>0.01566160381541316</v>
+        <v>0.01426592996042112</v>
       </c>
       <c r="J2">
-        <v>0.02320577774905081</v>
+        <v>0.0209748055045382</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>110.864399</v>
+        <v>98.170451</v>
       </c>
       <c r="N2">
-        <v>332.593197</v>
+        <v>294.511353</v>
       </c>
       <c r="O2">
-        <v>0.4698467856635862</v>
+        <v>0.4110278868558457</v>
       </c>
       <c r="P2">
-        <v>0.4940325573104491</v>
+        <v>0.4243928215400083</v>
       </c>
       <c r="Q2">
-        <v>6.554229359280667</v>
+        <v>1.826330346920333</v>
       </c>
       <c r="R2">
-        <v>58.988064233526</v>
+        <v>16.436973122283</v>
       </c>
       <c r="S2">
-        <v>0.007358554211008433</v>
+        <v>0.005863695045665394</v>
       </c>
       <c r="T2">
-        <v>0.01146440972574149</v>
+        <v>0.008901556889323863</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.05911933333333333</v>
+        <v>0.01860366666666667</v>
       </c>
       <c r="H3">
-        <v>0.177358</v>
+        <v>0.055811</v>
       </c>
       <c r="I3">
-        <v>0.01566160381541316</v>
+        <v>0.01426592996042112</v>
       </c>
       <c r="J3">
-        <v>0.02320577774905081</v>
+        <v>0.0209748055045382</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>104.164566</v>
       </c>
       <c r="O3">
-        <v>0.1471508947164138</v>
+        <v>0.1453748421312515</v>
       </c>
       <c r="P3">
-        <v>0.1547256149142253</v>
+        <v>0.150101833491052</v>
       </c>
       <c r="Q3">
-        <v>2.052713232958666</v>
+        <v>0.6459476214473334</v>
       </c>
       <c r="R3">
-        <v>18.474419096628</v>
+        <v>5.813528593026001</v>
       </c>
       <c r="S3">
-        <v>0.002304619014132047</v>
+        <v>0.002073907315851711</v>
       </c>
       <c r="T3">
-        <v>0.003590528231784732</v>
+        <v>0.003148356763349393</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.05911933333333333</v>
+        <v>0.01860366666666667</v>
       </c>
       <c r="H4">
-        <v>0.177358</v>
+        <v>0.055811</v>
       </c>
       <c r="I4">
-        <v>0.01566160381541316</v>
+        <v>0.01426592996042112</v>
       </c>
       <c r="J4">
-        <v>0.02320577774905081</v>
+        <v>0.0209748055045382</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.88149066666667</v>
+        <v>38.82199566666667</v>
       </c>
       <c r="N4">
-        <v>92.64447200000001</v>
+        <v>116.465987</v>
       </c>
       <c r="O4">
-        <v>0.1308767219874919</v>
+        <v>0.1625430328561575</v>
       </c>
       <c r="P4">
-        <v>0.1376137149998179</v>
+        <v>0.1678282630971171</v>
       </c>
       <c r="Q4">
-        <v>1.825693140552889</v>
+        <v>0.7222314667174444</v>
       </c>
       <c r="R4">
-        <v>16.431238264976</v>
+        <v>6.500083200456999</v>
       </c>
       <c r="S4">
-        <v>0.002049739368428071</v>
+        <v>0.002318827522280372</v>
       </c>
       <c r="T4">
-        <v>0.003193433285506994</v>
+        <v>0.003520165176626497</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.05911933333333333</v>
+        <v>0.01860366666666667</v>
       </c>
       <c r="H5">
-        <v>0.177358</v>
+        <v>0.055811</v>
       </c>
       <c r="I5">
-        <v>0.01566160381541316</v>
+        <v>0.01426592996042112</v>
       </c>
       <c r="J5">
-        <v>0.02320577774905081</v>
+        <v>0.0209748055045382</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>34.654647</v>
+        <v>22.5647</v>
       </c>
       <c r="N5">
-        <v>69.30929399999999</v>
+        <v>45.1294</v>
       </c>
       <c r="O5">
-        <v>0.1468674763776624</v>
+        <v>0.09447568860141126</v>
       </c>
       <c r="P5">
-        <v>0.1029517382467741</v>
+        <v>0.06503176602637677</v>
       </c>
       <c r="Q5">
-        <v>2.048759627542</v>
+        <v>0.4197861572333334</v>
       </c>
       <c r="R5">
-        <v>12.292557765252</v>
+        <v>2.5187169434</v>
       </c>
       <c r="S5">
-        <v>0.0023001802283965</v>
+        <v>0.001347783556550289</v>
       </c>
       <c r="T5">
-        <v>0.002389075156633092</v>
+        <v>0.001364028644019887</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.05911933333333333</v>
+        <v>0.01860366666666667</v>
       </c>
       <c r="H6">
-        <v>0.177358</v>
+        <v>0.055811</v>
       </c>
       <c r="I6">
-        <v>0.01566160381541316</v>
+        <v>0.01426592996042112</v>
       </c>
       <c r="J6">
-        <v>0.02320577774905081</v>
+        <v>0.0209748055045382</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.836561</v>
+        <v>44.56267066666667</v>
       </c>
       <c r="N6">
-        <v>74.509683</v>
+        <v>133.688012</v>
       </c>
       <c r="O6">
-        <v>0.1052581212548456</v>
+        <v>0.186578549555334</v>
       </c>
       <c r="P6">
-        <v>0.1106763745287336</v>
+        <v>0.1926453158454455</v>
       </c>
       <c r="Q6">
-        <v>1.468320928612667</v>
+        <v>0.8290290708591112</v>
       </c>
       <c r="R6">
-        <v>13.214888357514</v>
+        <v>7.461261637732001</v>
       </c>
       <c r="S6">
-        <v>0.001648510993448111</v>
+        <v>0.002661716520073356</v>
       </c>
       <c r="T6">
-        <v>0.002568331349384501</v>
+        <v>0.00404069803121855</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>0.10239</v>
       </c>
       <c r="I7">
-        <v>0.009041552197589925</v>
+        <v>0.02617205512618514</v>
       </c>
       <c r="J7">
-        <v>0.01339685598464863</v>
+        <v>0.03848005474923699</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>110.864399</v>
+        <v>98.170451</v>
       </c>
       <c r="N7">
-        <v>332.593197</v>
+        <v>294.511353</v>
       </c>
       <c r="O7">
-        <v>0.4698467856635862</v>
+        <v>0.4110278868558457</v>
       </c>
       <c r="P7">
-        <v>0.4940325573104491</v>
+        <v>0.4243928215400083</v>
       </c>
       <c r="Q7">
-        <v>3.78380193787</v>
+        <v>3.35055749263</v>
       </c>
       <c r="R7">
-        <v>34.05421744083001</v>
+        <v>30.15501743367</v>
       </c>
       <c r="S7">
-        <v>0.004248144237447161</v>
+        <v>0.01075744451319058</v>
       </c>
       <c r="T7">
-        <v>0.00661848302201576</v>
+        <v>0.01633065900804269</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>0.10239</v>
       </c>
       <c r="I8">
-        <v>0.009041552197589925</v>
+        <v>0.02617205512618514</v>
       </c>
       <c r="J8">
-        <v>0.01339685598464863</v>
+        <v>0.03848005474923699</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>104.164566</v>
       </c>
       <c r="O8">
-        <v>0.1471508947164138</v>
+        <v>0.1453748421312515</v>
       </c>
       <c r="P8">
-        <v>0.1547256149142253</v>
+        <v>0.150101833491052</v>
       </c>
       <c r="Q8">
         <v>1.18504554586</v>
@@ -948,10 +948,10 @@
         <v>10.66540991274</v>
       </c>
       <c r="S8">
-        <v>0.001330472495500515</v>
+        <v>0.003804758382219575</v>
       </c>
       <c r="T8">
-        <v>0.002072836780142079</v>
+        <v>0.005775926770696534</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>0.10239</v>
       </c>
       <c r="I9">
-        <v>0.009041552197589925</v>
+        <v>0.02617205512618514</v>
       </c>
       <c r="J9">
-        <v>0.01339685598464863</v>
+        <v>0.03848005474923699</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>30.88149066666667</v>
+        <v>38.82199566666667</v>
       </c>
       <c r="N9">
-        <v>92.64447200000001</v>
+        <v>116.465987</v>
       </c>
       <c r="O9">
-        <v>0.1308767219874919</v>
+        <v>0.1625430328561575</v>
       </c>
       <c r="P9">
-        <v>0.1376137149998179</v>
+        <v>0.1678282630971171</v>
       </c>
       <c r="Q9">
-        <v>1.053985276453333</v>
+        <v>1.324994712103333</v>
       </c>
       <c r="R9">
-        <v>9.485867488080002</v>
+        <v>11.92495240893</v>
       </c>
       <c r="S9">
-        <v>0.001183328713299373</v>
+        <v>0.004254085216288676</v>
       </c>
       <c r="T9">
-        <v>0.001843591121365042</v>
+        <v>0.006458040752446417</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>0.10239</v>
       </c>
       <c r="I10">
-        <v>0.009041552197589925</v>
+        <v>0.02617205512618514</v>
       </c>
       <c r="J10">
-        <v>0.01339685598464863</v>
+        <v>0.03848005474923699</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>34.654647</v>
+        <v>22.5647</v>
       </c>
       <c r="N10">
-        <v>69.30929399999999</v>
+        <v>45.1294</v>
       </c>
       <c r="O10">
-        <v>0.1468674763776624</v>
+        <v>0.09447568860141126</v>
       </c>
       <c r="P10">
-        <v>0.1029517382467741</v>
+        <v>0.06503176602637677</v>
       </c>
       <c r="Q10">
-        <v>1.18276310211</v>
+        <v>0.7701332110000001</v>
       </c>
       <c r="R10">
-        <v>7.09657861266</v>
+        <v>4.620799266000001</v>
       </c>
       <c r="S10">
-        <v>0.00132790995379694</v>
+        <v>0.002472622930160436</v>
       </c>
       <c r="T10">
-        <v>0.001379229610661275</v>
+        <v>0.002502425917134548</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>0.10239</v>
       </c>
       <c r="I11">
-        <v>0.009041552197589925</v>
+        <v>0.02617205512618514</v>
       </c>
       <c r="J11">
-        <v>0.01339685598464863</v>
+        <v>0.03848005474923699</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>24.836561</v>
+        <v>44.56267066666667</v>
       </c>
       <c r="N11">
-        <v>74.509683</v>
+        <v>133.688012</v>
       </c>
       <c r="O11">
-        <v>0.1052581212548456</v>
+        <v>0.186578549555334</v>
       </c>
       <c r="P11">
-        <v>0.1106763745287336</v>
+        <v>0.1926453158454455</v>
       </c>
       <c r="Q11">
-        <v>0.84767182693</v>
+        <v>1.520923949853333</v>
       </c>
       <c r="R11">
-        <v>7.62904644237</v>
+        <v>13.68831554868</v>
       </c>
       <c r="S11">
-        <v>0.000951696797545936</v>
+        <v>0.004883144084325866</v>
       </c>
       <c r="T11">
-        <v>0.001482715450464479</v>
+        <v>0.007413002300916797</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.681545</v>
+        <v>1.251329</v>
       </c>
       <c r="H12">
-        <v>7.363090000000001</v>
+        <v>2.502658</v>
       </c>
       <c r="I12">
-        <v>0.9752968439869969</v>
+        <v>0.9595620149133938</v>
       </c>
       <c r="J12">
-        <v>0.9633973662663006</v>
+        <v>0.9405451397462248</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>110.864399</v>
+        <v>98.170451</v>
       </c>
       <c r="N12">
-        <v>332.593197</v>
+        <v>294.511353</v>
       </c>
       <c r="O12">
-        <v>0.4698467856635862</v>
+        <v>0.4110278868558457</v>
       </c>
       <c r="P12">
-        <v>0.4940325573104491</v>
+        <v>0.4243928215400083</v>
       </c>
       <c r="Q12">
-        <v>408.1522738164551</v>
+        <v>122.843532279379</v>
       </c>
       <c r="R12">
-        <v>2448.91364289873</v>
+        <v>737.061193676274</v>
       </c>
       <c r="S12">
-        <v>0.4582400872151307</v>
+        <v>0.3944067472969898</v>
       </c>
       <c r="T12">
-        <v>0.4759496645626918</v>
+        <v>0.3991606056426418</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.681545</v>
+        <v>1.251329</v>
       </c>
       <c r="H13">
-        <v>7.363090000000001</v>
+        <v>2.502658</v>
       </c>
       <c r="I13">
-        <v>0.9752968439869969</v>
+        <v>0.9595620149133938</v>
       </c>
       <c r="J13">
-        <v>0.9633973662663006</v>
+        <v>0.9405451397462248</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>104.164566</v>
       </c>
       <c r="O13">
-        <v>0.1471508947164138</v>
+        <v>0.1453748421312515</v>
       </c>
       <c r="P13">
-        <v>0.1547256149142253</v>
+        <v>0.150101833491052</v>
       </c>
       <c r="Q13">
-        <v>127.82884571149</v>
+        <v>43.44804740273801</v>
       </c>
       <c r="R13">
-        <v>766.9730742689401</v>
+        <v>260.6882844164281</v>
       </c>
       <c r="S13">
-        <v>0.1435158032067813</v>
+        <v>0.1394961764331802</v>
       </c>
       <c r="T13">
-        <v>0.1490622499022985</v>
+        <v>0.141177549957006</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.681545</v>
+        <v>1.251329</v>
       </c>
       <c r="H14">
-        <v>7.363090000000001</v>
+        <v>2.502658</v>
       </c>
       <c r="I14">
-        <v>0.9752968439869969</v>
+        <v>0.9595620149133938</v>
       </c>
       <c r="J14">
-        <v>0.9633973662663006</v>
+        <v>0.9405451397462248</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>30.88149066666667</v>
+        <v>38.82199566666667</v>
       </c>
       <c r="N14">
-        <v>92.64447200000001</v>
+        <v>116.465987</v>
       </c>
       <c r="O14">
-        <v>0.1308767219874919</v>
+        <v>0.1625430328561575</v>
       </c>
       <c r="P14">
-        <v>0.1376137149998179</v>
+        <v>0.1678282630971171</v>
       </c>
       <c r="Q14">
-        <v>113.6915975564133</v>
+        <v>48.57908901557434</v>
       </c>
       <c r="R14">
-        <v>682.1495853384802</v>
+        <v>291.474534093446</v>
       </c>
       <c r="S14">
-        <v>0.1276436539057644</v>
+        <v>0.1559701201175884</v>
       </c>
       <c r="T14">
-        <v>0.1325766905929459</v>
+        <v>0.1578500571680442</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.681545</v>
+        <v>1.251329</v>
       </c>
       <c r="H15">
-        <v>7.363090000000001</v>
+        <v>2.502658</v>
       </c>
       <c r="I15">
-        <v>0.9752968439869969</v>
+        <v>0.9595620149133938</v>
       </c>
       <c r="J15">
-        <v>0.9633973662663006</v>
+        <v>0.9405451397462248</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>34.654647</v>
+        <v>22.5647</v>
       </c>
       <c r="N15">
-        <v>69.30929399999999</v>
+        <v>45.1294</v>
       </c>
       <c r="O15">
-        <v>0.1468674763776624</v>
+        <v>0.09447568860141126</v>
       </c>
       <c r="P15">
-        <v>0.1029517382467741</v>
+        <v>0.06503176602637677</v>
       </c>
       <c r="Q15">
-        <v>127.582642389615</v>
+        <v>28.2358634863</v>
       </c>
       <c r="R15">
-        <v>510.33056955846</v>
+        <v>112.9434539452</v>
       </c>
       <c r="S15">
-        <v>0.1432393861954689</v>
+        <v>0.09065528211470053</v>
       </c>
       <c r="T15">
-        <v>0.09918343347947969</v>
+        <v>0.06116531146522233</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.681545</v>
+        <v>1.251329</v>
       </c>
       <c r="H16">
-        <v>7.363090000000001</v>
+        <v>2.502658</v>
       </c>
       <c r="I16">
-        <v>0.9752968439869969</v>
+        <v>0.9595620149133938</v>
       </c>
       <c r="J16">
-        <v>0.9633973662663006</v>
+        <v>0.9405451397462248</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>24.836561</v>
+        <v>44.56267066666667</v>
       </c>
       <c r="N16">
-        <v>74.509683</v>
+        <v>133.688012</v>
       </c>
       <c r="O16">
-        <v>0.1052581212548456</v>
+        <v>0.186578549555334</v>
       </c>
       <c r="P16">
-        <v>0.1106763745287336</v>
+        <v>0.1926453158454455</v>
       </c>
       <c r="Q16">
-        <v>91.436916966745</v>
+        <v>55.76256212264934</v>
       </c>
       <c r="R16">
-        <v>548.62150180047</v>
+        <v>334.5753727358961</v>
       </c>
       <c r="S16">
-        <v>0.1026579134638515</v>
+        <v>0.1790336889509347</v>
       </c>
       <c r="T16">
-        <v>0.1066253277288847</v>
+        <v>0.1811916155133102</v>
       </c>
     </row>
   </sheetData>
